--- a/Filer/Generelt/Webscraping join rating.xlsx
+++ b/Filer/Generelt/Webscraping join rating.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="26.05.2023" sheetId="1" r:id="rId1"/>
+    <sheet name="09.06.2023" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,812 +396,702 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>497</v>
+        <v>417</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>300495‑FRER</t>
+          <t>230403‑JOGR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Frederik Eriksen</t>
+          <t>Johan Grønhøj</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nørreå</t>
+          <t>Sisu/MBK</t>
         </is>
       </c>
       <c r="E2">
-        <v>2048</v>
+        <v>2091</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>497</v>
+        <v>1999</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>300495‑FRER</t>
+          <t>131263‑OLCH</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Frederik Eriksen</t>
+          <t>Ole Munck Christensen</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nørreå</t>
+          <t>Hørning</t>
         </is>
       </c>
       <c r="E3">
-        <v>2048</v>
+        <v>1418</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>995</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>230578‑THBJ</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Thomas Bjerregaard</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Midtjylland</t>
-        </is>
-      </c>
-      <c r="E4">
-        <v>1784</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>36</v>
+          <t>070112‑SOAN</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>995</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>230578‑THBJ</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Thomas Bjerregaard</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Midtjylland</t>
-        </is>
-      </c>
-      <c r="E5">
-        <v>1784</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>36</v>
+          <t>100509‑HARY</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>969</v>
+        <v>915</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>100906‑ANHO</t>
+          <t>201005‑BADI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Anders Holler</t>
+          <t>Bastian Diness</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tateni</t>
+          <t>Sisu/MBK</t>
         </is>
       </c>
       <c r="E6">
-        <v>1794</v>
+        <v>1819</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>030602‑GUFA</t>
+          <t>220475‑JEST</t>
         </is>
       </c>
     </row>
     <row r="8">
+      <c r="A8">
+        <v>323</v>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>030602‑GUFA</t>
-        </is>
+          <t>190901‑VIAM</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Victor Amstrup</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Silkeborg BTK</t>
+        </is>
+      </c>
+      <c r="E8">
+        <v>2161</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>45</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>2153</v>
-      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>201273‑HEHA</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Henrik Hansen</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Hørning</t>
-        </is>
-      </c>
-      <c r="E9">
-        <v>1369</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>64</v>
+          <t>051108‑KAGL</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1740</v>
+        <v>110</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>250662‑MASV</t>
+          <t>281101‑BJKR</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Martin Svendsen</t>
+          <t>Bjarke Krog</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Holbæk BTK</t>
+          <t>Brønderslev</t>
         </is>
       </c>
       <c r="E10">
-        <v>1497</v>
+        <v>2433</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>170</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>150407‑LAKR</t>
+          <t>281101‑BJKR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lasse Fly Kristensen</t>
+          <t>Bjarke Krog</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Brønderslev</t>
+        </is>
+      </c>
+      <c r="E11">
+        <v>2433</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>157</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>250901‑MIEL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mickey Elsborg</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="E12">
+        <v>2365</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>515</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160878‑HABO</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Hans Herluf Boisen</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Viby</t>
         </is>
       </c>
-      <c r="E11">
-        <v>2253</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>180512‑BEBO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>240499‑0011</t>
-        </is>
+      <c r="E13">
+        <v>2034</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1169</v>
+        <v>1560</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>180794‑EMRI</t>
+          <t>080950‑BEJA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Emil Ringgård</t>
+          <t>Bent O. Jakobsen</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Silkeborg BTK</t>
+          <t>Sisu/MBK</t>
         </is>
       </c>
       <c r="E14">
-        <v>1714</v>
+        <v>1565</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>189</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>3547</v>
+        <v>2669</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>240275‑IVHJ</t>
+          <t>050512‑OTSV</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ivan Schulz Hjul</t>
+          <t>Otto Svindt</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Varde</t>
+          <t>Sisu/MBK</t>
         </is>
       </c>
       <c r="E15">
-        <v>1019</v>
+        <v>1207</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>3547</v>
+        <v>799</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>240275‑IVHJ</t>
+          <t>110696‑RAHA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ivan Schulz Hjul</t>
+          <t>Rasmus Damkjær Hansen</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Varde</t>
+          <t>Sisu/MBK</t>
         </is>
       </c>
       <c r="E16">
-        <v>1019</v>
+        <v>1877</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
-        <v>4402</v>
-      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>260775‑ANCH</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Anna-Maja K. Christiansen</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Varde</t>
-        </is>
-      </c>
-      <c r="E17">
-        <v>936</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>29</v>
+          <t>110814‑NOKA</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>4402</v>
+        <v>3183</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>260775‑ANCH</t>
+          <t>200512‑OLKA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Anna-Maja K. Christiansen</t>
+          <t>Oliver Kallestrup-Lamb</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Varde</t>
+          <t>Sisu/MBK</t>
         </is>
       </c>
       <c r="E18">
-        <v>936</v>
+        <v>1088</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>29</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
+      <c r="A19">
+        <v>2592</v>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>260792‑0010</t>
-        </is>
+          <t>030882‑MIMI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Milosz Miszczuk</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E19">
+        <v>1226</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>260792‑0010</t>
+          <t>240499‑0012</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1371</v>
+        <v>965</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>221206‑OLJO</t>
+          <t>040791‑THPE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Oliver Kjeldgaard Johansson</t>
+          <t>Thomas B. Petersen</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hørning</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E21">
-        <v>1637</v>
+        <v>1795</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>106</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2008</v>
+        <v>965</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>100510‑FRKJ</t>
+          <t>040791‑THPE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Frederik Kjeldgaard</t>
+          <t>Thomas B. Petersen</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hørning</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E22">
-        <v>1415</v>
+        <v>1795</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>133</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
-        <v>2306</v>
-      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>300597‑RAAN</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Rasmus Andreasen</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Midtjylland</t>
-        </is>
-      </c>
-      <c r="E23">
-        <v>1318</v>
-      </c>
-      <c r="F23">
-        <v>11</v>
-      </c>
-      <c r="G23">
-        <v>49</v>
+          <t>261110‑MAPU</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
-        <v>115</v>
-      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>300678‑THKJ</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Thomas Kjeldgård</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Hørning</t>
-        </is>
-      </c>
-      <c r="E24">
-        <v>2430</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>45</v>
+          <t>010914‑KAHØ</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>847</v>
+        <v>698</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>190605‑MAHA</t>
+          <t>280909‑GUHØ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Malene Dyrby Hansen</t>
+          <t>Gustav Højslet</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Viby</t>
+          <t>Ribe</t>
         </is>
       </c>
       <c r="E25">
-        <v>1852</v>
+        <v>1928</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>72</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
-        <v>892</v>
-      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>260905‑MIJE</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Mikkel B. Jespersen</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Midtjylland</t>
-        </is>
-      </c>
-      <c r="E26">
-        <v>1830</v>
-      </c>
-      <c r="F26">
-        <v>-17</v>
-      </c>
-      <c r="G26">
-        <v>155</v>
+          <t>101014‑WIBE</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>50</v>
+        <v>496</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>290593‑EMMA</t>
+          <t>300495‑FRER</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Emil Madsen</t>
+          <t>Frederik Eriksen</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hørning</t>
+          <t>Nørreå</t>
         </is>
       </c>
       <c r="E27">
-        <v>2594</v>
+        <v>2048</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>50</v>
+        <v>496</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>290593‑EMMA</t>
+          <t>300495‑FRER</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Emil Madsen</t>
+          <t>Frederik Eriksen</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hørning</t>
+          <t>Nørreå</t>
         </is>
       </c>
       <c r="E28">
-        <v>2594</v>
+        <v>2048</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1921</v>
+        <v>996</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>080572‑LACH</t>
+          <t>230578‑THBJ</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lars Christensen</t>
+          <t>Thomas Bjerregaard</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Viby</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E29">
-        <v>1440</v>
+        <v>1784</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>706</v>
+        <v>996</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>060305‑ALJA</t>
+          <t>230578‑THBJ</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Alexander H. Jakobsen</t>
+          <t>Thomas Bjerregaard</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Viby</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E30">
-        <v>1926</v>
+        <v>1784</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>134</v>
+        <v>968</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>180365‑JOSA</t>
+          <t>100906‑ANHO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>John Sabalic</t>
+          <t>Anders Holler</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rønde</t>
+          <t>Tateni</t>
         </is>
       </c>
       <c r="E31">
-        <v>2396</v>
+        <v>1794</v>
       </c>
       <c r="F31">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
-        <v>134</v>
-      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>180365‑JOSA</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>John Sabalic</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Rønde</t>
-        </is>
-      </c>
-      <c r="E32">
-        <v>2396</v>
-      </c>
-      <c r="F32">
-        <v>-28</v>
-      </c>
-      <c r="G32">
-        <v>14</v>
+          <t>030602‑GUFA</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
-        <v>1819</v>
-      </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>140676‑MIMO</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Michael Moesgård</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Hørning</t>
-        </is>
-      </c>
-      <c r="E33">
-        <v>1473</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>42</v>
+          <t>030602‑GUFA</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1819</v>
+        <v>2153</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>140676‑MIMO</t>
+          <t>201273‑HEHA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Michael Moesgård</t>
+          <t>Henrik Hansen</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1210,852 +1100,1489 @@
         </is>
       </c>
       <c r="E34">
-        <v>1473</v>
+        <v>1369</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1968</v>
+        <v>1692</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>051172‑HESØ</t>
+          <t>250662‑MASV</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Henrik H. Sørensen</t>
+          <t>Martin Svendsen</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Hørning</t>
+          <t>Holbæk BTK</t>
         </is>
       </c>
       <c r="E35">
-        <v>1425</v>
+        <v>1518</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1968</v>
+        <v>232</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>051172‑HESØ</t>
+          <t>150407‑LAKR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Henrik H. Sørensen</t>
+          <t>Lasse Fly Kristensen</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Hørning</t>
+          <t>Viby</t>
         </is>
       </c>
       <c r="E36">
-        <v>1425</v>
+        <v>2253</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
-        <v>1882</v>
-      </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>080871‑SHYA</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Shibo yang</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Hørning</t>
-        </is>
-      </c>
-      <c r="E37">
-        <v>1451</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>24</v>
+          <t>180512‑BEBO</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
-        <v>829</v>
-      </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>061102‑THSC</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Thor O. Schneider</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Nørreå</t>
-        </is>
-      </c>
-      <c r="E38">
-        <v>1860</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>48</v>
+          <t>240499‑0011</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>829</v>
+        <v>938</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>061102‑THSC</t>
+          <t>180794‑EMRI</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Thor O. Schneider</t>
+          <t>Emil Ringgård</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Nørreå</t>
+          <t>Silkeborg BTK</t>
         </is>
       </c>
       <c r="E39">
-        <v>1860</v>
+        <v>1804</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G39">
-        <v>48</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>684</v>
+        <v>3551</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>230202‑SOFI</t>
+          <t>240275‑IVHJ</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sofus Fisker</t>
+          <t>Ivan Schulz Hjul</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Nørreå</t>
+          <t>Varde</t>
         </is>
       </c>
       <c r="E40">
-        <v>1936</v>
+        <v>1019</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>684</v>
+        <v>3551</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>230202‑SOFI</t>
+          <t>240275‑IVHJ</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sofus Fisker</t>
+          <t>Ivan Schulz Hjul</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Nørreå</t>
+          <t>Varde</t>
         </is>
       </c>
       <c r="E41">
-        <v>1936</v>
+        <v>1019</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>3580</v>
+        <v>4406</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>190667‑CLNI</t>
+          <t>260775‑ANCH</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Claus Hvam Nielsen</t>
+          <t>Anna-Maja K. Christiansen</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Hørning</t>
+          <t>Varde</t>
         </is>
       </c>
       <c r="E42">
-        <v>1014</v>
+        <v>936</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>3580</v>
+        <v>4406</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>190667‑CLNI</t>
+          <t>260775‑ANCH</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Claus Hvam Nielsen</t>
+          <t>Anna-Maja K. Christiansen</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Hørning</t>
+          <t>Varde</t>
         </is>
       </c>
       <c r="E43">
-        <v>1014</v>
+        <v>936</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>281155‑0009</t>
+          <t>260792‑0010</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>281155‑0009</t>
+          <t>260792‑0010</t>
         </is>
       </c>
     </row>
     <row r="46">
+      <c r="A46">
+        <v>1372</v>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>010249‑0008</t>
-        </is>
+          <t>221206‑OLJO</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Oliver Kjeldgaard Johansson</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E46">
+        <v>1637</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>106</v>
       </c>
     </row>
     <row r="47">
+      <c r="A47">
+        <v>1791</v>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>230212‑MASØ</t>
-        </is>
+          <t>100510‑FRKJ</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Frederik Kjeldgaard</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E47">
+        <v>1484</v>
+      </c>
+      <c r="F47">
+        <v>69</v>
+      </c>
+      <c r="G47">
+        <v>141</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>4199</v>
+        <v>2308</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>101206‑OLSØ</t>
+          <t>300597‑RAAN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Oliver Henneberg Sørensen</t>
+          <t>Rasmus Andreasen</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Hørning</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E48">
-        <v>984</v>
+        <v>1318</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1899</v>
+        <v>117</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>280783‑DIBI</t>
+          <t>300678‑THKJ</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Dima Bibko</t>
+          <t>Thomas Kjeldgård</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SKF</t>
+          <t>Hørning</t>
         </is>
       </c>
       <c r="E49">
-        <v>1447</v>
+        <v>2416</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="G49">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>2590</v>
+        <v>845</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>030882‑MIMI</t>
+          <t>190605‑MAHA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Milosz Miszczuk</t>
+          <t>Malene Dyrby Hansen</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Hørning</t>
+          <t>Viby</t>
         </is>
       </c>
       <c r="E50">
-        <v>1226</v>
+        <v>1852</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>133</v>
+        <v>891</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>050993‑MALA</t>
+          <t>260905‑MIJE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mads Larsen</t>
+          <t>Mikkel B. Jespersen</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Silkeborg BTK</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E51">
-        <v>2399</v>
+        <v>1830</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>28</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>050993‑MALA</t>
+          <t>290593‑EMMA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Mads Larsen</t>
+          <t>Emil Madsen</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Silkeborg BTK</t>
+          <t>Hørning</t>
         </is>
       </c>
       <c r="E52">
-        <v>2399</v>
+        <v>2594</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1118</v>
+        <v>50</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>231072‑KENI</t>
+          <t>290593‑EMMA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Kenneth Nielsen</t>
+          <t>Emil Madsen</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Aarhus Bordtennis</t>
+          <t>Hørning</t>
         </is>
       </c>
       <c r="E53">
-        <v>1734</v>
+        <v>2594</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>723</v>
+        <v>1925</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>250974‑JATH</t>
+          <t>080572‑LACH</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Jan Therkelsen</t>
+          <t>Lars Christensen</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Aarhus Bordtennis</t>
+          <t>Viby</t>
         </is>
       </c>
       <c r="E54">
-        <v>1916</v>
+        <v>1440</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>103</v>
+        <v>704</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>120297‑JOHA</t>
+          <t>060305‑ALJA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Jonathan Abildgaard Hansen</t>
+          <t>Alexander H. Jakobsen</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Viby</t>
         </is>
       </c>
       <c r="E55">
-        <v>2458</v>
+        <v>1926</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1078</v>
+        <v>134</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>160686‑IBAB</t>
+          <t>180365‑JOSA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ibrahim Abdallah</t>
+          <t>John Sabalic</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Aarhus Bordtennis</t>
+          <t>Rønde</t>
         </is>
       </c>
       <c r="E56">
-        <v>1748</v>
+        <v>2396</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>030899‑ESBA</t>
+          <t>180365‑JOSA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Esben Rask Bach</t>
+          <t>John Sabalic</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tateni</t>
+          <t>Rønde</t>
         </is>
       </c>
       <c r="E57">
-        <v>2280</v>
+        <v>2396</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>215</v>
+        <v>1821</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>030899‑ESBA</t>
+          <t>140676‑MIMO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Esben Rask Bach</t>
+          <t>Michael Moesgård</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tateni</t>
+          <t>Hørning</t>
         </is>
       </c>
       <c r="E58">
-        <v>2280</v>
+        <v>1473</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>87</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>648</v>
+        <v>1821</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>200792‑CHAN</t>
+          <t>140676‑MIMO</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Christian H. Andersen</t>
+          <t>Michael Moesgård</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Hørning</t>
         </is>
       </c>
       <c r="E59">
-        <v>1956</v>
+        <v>1473</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>648</v>
+        <v>1971</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>200792‑CHAN</t>
+          <t>051172‑HESØ</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Christian H. Andersen</t>
+          <t>Henrik H. Sørensen</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Hørning</t>
         </is>
       </c>
       <c r="E60">
-        <v>1956</v>
+        <v>1425</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>383</v>
+        <v>1971</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>100595‑SEJE</t>
+          <t>051172‑HESØ</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sebastian Kjær Jensen</t>
+          <t>Henrik H. Sørensen</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sjørring</t>
+          <t>Hørning</t>
         </is>
       </c>
       <c r="E61">
-        <v>2112</v>
+        <v>1425</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>383</v>
+        <v>1885</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>100595‑SEJE</t>
+          <t>080871‑SHYA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sebastian Kjær Jensen</t>
+          <t>Shibo yang</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sjørring</t>
+          <t>Hørning</t>
         </is>
       </c>
       <c r="E62">
-        <v>2112</v>
+        <v>1451</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>158</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>771</v>
+        <v>828</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>300496‑DAWO</t>
+          <t>061102‑THSC</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Daniel Wolf</t>
+          <t>Thor O. Schneider</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Nørreå</t>
         </is>
       </c>
       <c r="E63">
-        <v>1894</v>
+        <v>1860</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>771</v>
+        <v>828</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>300496‑DAWO</t>
+          <t>061102‑THSC</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Daniel Wolf</t>
+          <t>Thor O. Schneider</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Nørreå</t>
         </is>
       </c>
       <c r="E64">
-        <v>1894</v>
+        <v>1860</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>77</v>
+        <v>683</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>080294‑BESØ</t>
+          <t>230202‑SOFI</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Benjamin Sørensen</t>
+          <t>Sofus Fisker</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Hørning</t>
+          <t>Nørreå</t>
         </is>
       </c>
       <c r="E65">
-        <v>2525</v>
+        <v>1936</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
+        <v>683</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>230202‑SOFI</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Sofus Fisker</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Nørreå</t>
+        </is>
+      </c>
+      <c r="E66">
+        <v>1936</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>3585</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>190667‑CLNI</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Claus Hvam Nielsen</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E67">
+        <v>1014</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>3585</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>190667‑CLNI</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Claus Hvam Nielsen</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E68">
+        <v>1014</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>281155‑0009</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>281155‑0009</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010249‑0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>230212‑MASØ</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>4200</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>101206‑OLSØ</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Oliver Henneberg Sørensen</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E73">
+        <v>984</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1902</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>280783‑DIBI</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Dima Bibko</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>SKF</t>
+        </is>
+      </c>
+      <c r="E74">
+        <v>1447</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>2592</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>030882‑MIMI</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Milosz Miszczuk</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E75">
+        <v>1226</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>133</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>050993‑MALA</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Mads Larsen</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Silkeborg BTK</t>
+        </is>
+      </c>
+      <c r="E76">
+        <v>2399</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>133</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>050993‑MALA</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Mads Larsen</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Silkeborg BTK</t>
+        </is>
+      </c>
+      <c r="E77">
+        <v>2399</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1120</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>231072‑KENI</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Kenneth Nielsen</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Aarhus Bordtennis</t>
+        </is>
+      </c>
+      <c r="E78">
+        <v>1734</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>721</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>250974‑JATH</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Jan Therkelsen</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Aarhus Bordtennis</t>
+        </is>
+      </c>
+      <c r="E79">
+        <v>1916</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>103</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>120297‑JOHA</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Jonathan Abildgaard Hansen</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E80">
+        <v>2458</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1078</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>160686‑IBAB</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Ibrahim Abdallah</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Aarhus Bordtennis</t>
+        </is>
+      </c>
+      <c r="E81">
+        <v>1748</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>216</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>030899‑ESBA</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Esben Rask Bach</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Tateni</t>
+        </is>
+      </c>
+      <c r="E82">
+        <v>2280</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>216</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>030899‑ESBA</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Esben Rask Bach</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Tateni</t>
+        </is>
+      </c>
+      <c r="E83">
+        <v>2280</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>648</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>200792‑CHAN</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Christian H. Andersen</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E84">
+        <v>1956</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>648</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>200792‑CHAN</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Christian H. Andersen</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E85">
+        <v>1956</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>383</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>100595‑SEJE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Sebastian Kjær Jensen</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Sjørring</t>
+        </is>
+      </c>
+      <c r="E86">
+        <v>2112</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>383</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>100595‑SEJE</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Sebastian Kjær Jensen</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Sjørring</t>
+        </is>
+      </c>
+      <c r="E87">
+        <v>2112</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>770</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>300496‑DAWO</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Daniel Wolf</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E88">
+        <v>1894</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>770</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>300496‑DAWO</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Daniel Wolf</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E89">
+        <v>1894</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
         <v>77</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>080294‑BESØ</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Benjamin Sørensen</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>Hørning</t>
         </is>
       </c>
-      <c r="E66">
+      <c r="E90">
         <v>2525</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>77</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>080294‑BESØ</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Benjamin Sørensen</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E91">
+        <v>2525</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
         <v>39</v>
       </c>
     </row>
